--- a/pinconfigs.xlsx
+++ b/pinconfigs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/M4800/Hackintosh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hans/Documents/AppleALC_Dell_M4800/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E68F8E-9118-4F47-9F3D-BEE71A860601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBCE7D-239F-7E49-AE57-D0D8E0108F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,10 +507,6 @@
     <t>WakeConfigData</t>
   </si>
   <si>
-    <t>Fina ConfigData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进制转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,6 +580,10 @@
   </si>
   <si>
     <t>https://github.com/badfellow/AppleALC_Dell_M4800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final ConfigData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,14 +934,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1679,16 +1679,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="18">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="2:9" ht="19">
       <c r="B2" s="16" t="s">
@@ -1973,16 +1973,16 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="2:9" ht="190" customHeight="1">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2005,7 +2005,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2040,8 +2040,8 @@
       <c r="C1" s="25"/>
     </row>
     <row r="2" spans="2:23">
-      <c r="B2" s="42" t="s">
-        <v>137</v>
+      <c r="B2" s="40" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="18">
@@ -2119,7 +2119,7 @@
         <v>102</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="27">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>111</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>101</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="27">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>108</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="27">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>105</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="27">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>106</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="27">
         <v>0</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="31" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D21" t="str">
         <f>"&lt;"&amp;_xlfn.TEXTJOIN(" ",TRUE,$V$5:$V$16)&amp;"&gt;"</f>
@@ -2840,21 +2840,21 @@
     </row>
     <row r="27" spans="2:10" ht="18">
       <c r="E27" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="E29" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>121</v>
-      </c>
       <c r="I29" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -3038,7 +3038,7 @@
     </row>
     <row r="46" spans="5:10">
       <c r="E46" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="38">
         <f t="shared" si="4"/>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="47" spans="5:10">
       <c r="E47" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" s="38">
         <f t="shared" si="4"/>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="48" spans="5:10">
       <c r="E48" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" s="38">
         <f t="shared" si="4"/>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="49" spans="5:6">
       <c r="E49" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49" s="38">
         <f t="shared" si="4"/>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="50" spans="5:6">
       <c r="E50" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" s="38">
         <f t="shared" si="4"/>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="51" spans="5:6">
       <c r="E51" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="38">
         <f t="shared" si="4"/>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="52" spans="5:6">
       <c r="E52" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52" s="38">
         <f t="shared" si="4"/>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="53" spans="5:6">
       <c r="E53" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F53" s="38">
         <f t="shared" si="4"/>
